--- a/KPI for Correlation.xlsx
+++ b/KPI for Correlation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sukree/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348A0285-E5E9-4540-BBB4-DB5CCF63137C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E334F0-BD5F-C940-B479-873ACED78F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{6B223E45-1BAE-E042-9C14-C4E3A866D386}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>2Y</t>
   </si>
@@ -319,21 +319,6 @@
   </si>
   <si>
     <t>สัดส่วนการลงทุนวิจัยและพัฒนาของภาคเอกชนต่อภาครัฐ เพิ่มเป็น 70:30</t>
-  </si>
-  <si>
-    <t>47:53</t>
-  </si>
-  <si>
-    <t>54:46</t>
-  </si>
-  <si>
-    <t>70:30</t>
-  </si>
-  <si>
-    <t>73:27</t>
-  </si>
-  <si>
-    <t>80:20</t>
   </si>
   <si>
     <t>106Y</t>
@@ -1454,11 +1439,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB01E5A2-EECC-C34B-9ADD-EC3B1F8EEB28}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="10" style="37" customWidth="1"/>
     <col min="2" max="2" width="174.6640625" style="37" bestFit="1" customWidth="1"/>
@@ -1472,10 +1457,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="24">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C1" s="39">
         <v>2555</v>
@@ -2462,30 +2447,35 @@
         <v>69</v>
       </c>
       <c r="C36" s="10"/>
-      <c r="D36" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>74</v>
+      <c r="D36" s="10">
+        <f>47/53</f>
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="E36" s="10">
+        <f>54/46</f>
+        <v>1.173913043478261</v>
+      </c>
+      <c r="F36" s="10">
+        <f>70/30</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G36" s="10">
+        <f>73/27</f>
+        <v>2.7037037037037037</v>
+      </c>
+      <c r="H36" s="10">
+        <f>80/20</f>
+        <v>4</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="24">
       <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2506,10 +2496,10 @@
     </row>
     <row r="38" spans="1:10" ht="24">
       <c r="A38" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C38" s="4">
         <v>3006076.37</v>
@@ -2538,10 +2528,10 @@
     </row>
     <row r="39" spans="1:10" ht="24">
       <c r="A39" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C39" s="11">
         <v>-107038.89</v>
@@ -2570,10 +2560,10 @@
     </row>
     <row r="40" spans="1:10" ht="24">
       <c r="A40" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C40" s="21">
         <v>286.10000000000002</v>
@@ -2602,10 +2592,10 @@
     </row>
     <row r="41" spans="1:10" ht="24">
       <c r="A41" s="18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -2626,10 +2616,10 @@
     </row>
     <row r="42" spans="1:10" ht="24">
       <c r="A42" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C42" s="22">
         <v>7.17E-2</v>
@@ -2654,10 +2644,10 @@
     </row>
     <row r="43" spans="1:10" ht="24">
       <c r="A43" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C43" s="22">
         <v>0.10879999999999999</v>
@@ -2682,10 +2672,10 @@
     </row>
     <row r="44" spans="1:10" ht="24">
       <c r="A44" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4">
@@ -2706,10 +2696,10 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -2726,10 +2716,10 @@
     </row>
     <row r="46" spans="1:10" ht="24">
       <c r="A46" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2748,10 +2738,10 @@
     </row>
     <row r="47" spans="1:10" ht="24">
       <c r="A47" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2770,10 +2760,10 @@
     </row>
     <row r="48" spans="1:10" ht="24">
       <c r="A48" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C48" s="25">
         <v>0.73099999999999998</v>
@@ -2800,10 +2790,10 @@
     </row>
     <row r="49" spans="1:10" ht="24">
       <c r="A49" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2820,10 +2810,10 @@
     </row>
     <row r="50" spans="1:10" ht="24">
       <c r="A50" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2842,10 +2832,10 @@
     </row>
     <row r="51" spans="1:10" ht="24">
       <c r="A51" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C51" s="4">
         <v>52</v>
@@ -2869,15 +2859,15 @@
         <v>56</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="24">
       <c r="A52" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4">
@@ -2897,15 +2887,15 @@
         <v>39.96</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="24">
       <c r="A53" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2926,10 +2916,10 @@
     </row>
     <row r="54" spans="1:10" ht="24">
       <c r="A54" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C54" s="14">
         <v>59.98</v>
@@ -2950,10 +2940,10 @@
     </row>
     <row r="55" spans="1:10" ht="24">
       <c r="A55" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4">
@@ -2972,7 +2962,7 @@
         <v>68</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J55" s="4">
         <v>66</v>
@@ -2980,10 +2970,10 @@
     </row>
     <row r="56" spans="1:10" ht="24">
       <c r="A56" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3000,10 +2990,10 @@
     </row>
     <row r="57" spans="1:10" ht="24">
       <c r="A57" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
@@ -3020,10 +3010,10 @@
     </row>
     <row r="58" spans="1:10" ht="24">
       <c r="A58" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="10">
@@ -3040,10 +3030,10 @@
     </row>
     <row r="59" spans="1:10" ht="24">
       <c r="A59" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="10">
@@ -3060,10 +3050,10 @@
     </row>
     <row r="60" spans="1:10" ht="24">
       <c r="A60" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="10">
@@ -3080,10 +3070,10 @@
     </row>
     <row r="61" spans="1:10" ht="24">
       <c r="A61" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="10">
@@ -3100,10 +3090,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="23" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C62" s="23"/>
       <c r="D62" s="23">
@@ -3126,10 +3116,10 @@
     </row>
     <row r="63" spans="1:10" ht="24">
       <c r="A63" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -3148,10 +3138,10 @@
     </row>
     <row r="64" spans="1:10" ht="24">
       <c r="A64" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="6">
@@ -3176,10 +3166,10 @@
     </row>
     <row r="65" spans="1:10" ht="24">
       <c r="A65" s="4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -3200,10 +3190,10 @@
     </row>
     <row r="66" spans="1:10" ht="24">
       <c r="A66" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="6">
@@ -3228,10 +3218,10 @@
     </row>
     <row r="67" spans="1:10" ht="24">
       <c r="A67" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -3252,10 +3242,10 @@
     </row>
     <row r="68" spans="1:10" ht="24">
       <c r="A68" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="6">
@@ -3280,10 +3270,10 @@
     </row>
     <row r="69" spans="1:10" ht="24">
       <c r="A69" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="6">
@@ -3308,10 +3298,10 @@
     </row>
     <row r="70" spans="1:10" ht="24">
       <c r="A70" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -3330,10 +3320,10 @@
     </row>
     <row r="71" spans="1:10" ht="24">
       <c r="A71" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -3354,10 +3344,10 @@
     </row>
     <row r="72" spans="1:10" ht="24">
       <c r="A72" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -3378,10 +3368,10 @@
     </row>
     <row r="73" spans="1:10" ht="24">
       <c r="A73" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -3402,10 +3392,10 @@
     </row>
     <row r="74" spans="1:10" ht="24">
       <c r="A74" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -3426,10 +3416,10 @@
     </row>
     <row r="75" spans="1:10" ht="24">
       <c r="A75" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -3450,10 +3440,10 @@
     </row>
     <row r="76" spans="1:10" ht="24">
       <c r="A76" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -3474,10 +3464,10 @@
     </row>
     <row r="77" spans="1:10" ht="24">
       <c r="A77" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C77" s="31"/>
       <c r="D77" s="32">
@@ -3502,10 +3492,10 @@
     </row>
     <row r="78" spans="1:10" ht="24">
       <c r="A78" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="33">
@@ -3530,10 +3520,10 @@
     </row>
     <row r="79" spans="1:10" ht="24">
       <c r="A79" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="6">
@@ -3558,10 +3548,10 @@
     </row>
     <row r="80" spans="1:10" ht="24">
       <c r="A80" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="6">
@@ -3586,10 +3576,10 @@
     </row>
     <row r="81" spans="1:10" ht="24">
       <c r="A81" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="6">
@@ -3614,10 +3604,10 @@
     </row>
     <row r="82" spans="1:10" ht="24">
       <c r="A82" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="6">
@@ -3642,10 +3632,10 @@
     </row>
     <row r="83" spans="1:10" ht="24">
       <c r="A83" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="6">
@@ -3673,7 +3663,7 @@
         <v>32</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6">
@@ -3700,10 +3690,10 @@
     </row>
     <row r="85" spans="1:10" ht="24">
       <c r="A85" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6">
@@ -3730,10 +3720,10 @@
     </row>
     <row r="86" spans="1:10" ht="24">
       <c r="A86" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6">
@@ -3760,10 +3750,10 @@
     </row>
     <row r="87" spans="1:10" ht="24">
       <c r="A87" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6">
@@ -3790,10 +3780,10 @@
     </row>
     <row r="88" spans="1:10" ht="24">
       <c r="A88" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="9">
@@ -3818,10 +3808,10 @@
     </row>
     <row r="89" spans="1:10" ht="24">
       <c r="A89" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="34">
@@ -3846,10 +3836,10 @@
     </row>
     <row r="90" spans="1:10" ht="24">
       <c r="A90" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="34">
@@ -3874,10 +3864,10 @@
     </row>
     <row r="91" spans="1:10" ht="24">
       <c r="A91" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="34">
@@ -3902,10 +3892,10 @@
     </row>
     <row r="92" spans="1:10" ht="24">
       <c r="A92" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -3924,10 +3914,10 @@
     </row>
     <row r="93" spans="1:10" ht="24">
       <c r="A93" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -3948,10 +3938,10 @@
     </row>
     <row r="94" spans="1:10" ht="24">
       <c r="A94" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -3974,10 +3964,10 @@
     </row>
     <row r="95" spans="1:10" ht="24">
       <c r="A95" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -3998,10 +3988,10 @@
     </row>
     <row r="96" spans="1:10" ht="24">
       <c r="A96" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C96" s="4">
         <v>17.21</v>
@@ -4026,10 +4016,10 @@
     </row>
     <row r="97" spans="1:10" ht="24">
       <c r="A97" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C97" s="4">
         <v>34.869999999999997</v>
@@ -4054,10 +4044,10 @@
     </row>
     <row r="98" spans="1:10" ht="24">
       <c r="A98" s="35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B98" s="35" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C98" s="35">
         <v>17.09</v>
@@ -4082,10 +4072,10 @@
     </row>
     <row r="99" spans="1:10" ht="24">
       <c r="A99" s="35" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C99" s="35">
         <v>18.29</v>
@@ -4112,10 +4102,10 @@
     </row>
     <row r="100" spans="1:10" ht="24">
       <c r="A100" s="35" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C100" s="35">
         <v>15.5</v>
@@ -4142,10 +4132,10 @@
     </row>
     <row r="101" spans="1:10" ht="24">
       <c r="A101" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="10"/>
